--- a/source/_posts/VPP-Notes/10-资料阅读.xlsx
+++ b/source/_posts/VPP-Notes/10-资料阅读.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zjueducn-my.sharepoint.com/personal/yangye10_zju_edu_cn/Documents/00-工作/02-浙达/90-笔记/10-资料阅读/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - zju.edu.cn\00-工作\02-浙达\90-笔记\10-资料阅读\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{C8BDBD93-2063-41FA-B15E-44FF3A887F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D0C71CE-7D58-4879-942D-98DC2189E07B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8A9562-BF5B-45D3-B17A-B7EABF0301FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="1110" windowWidth="21600" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18795" yWindow="1500" windowWidth="25215" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t xml:space="preserve"> 序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -944,6 +942,128 @@
   </si>
   <si>
     <t>需求相应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/wvJZ-PvNg7kBsKLeKDRyDg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发改委明确要深化储能和调峰机制改革，17省份或率先受益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储能和调峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>发改委组织召开2020年全国能源迎峰度夏工作会议指出，在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电力方面要深化储能和调峰机制改革，明确电源侧、电网侧、用户侧储能责任的共担机制，结合电力交易改革开展试点，通过灵活的市场化机制实现储能和调峰的成本回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>收。
+重点在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改革、增储、安全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">上下功夫，以改革保供应，以增储保供应，以安全保供应。
+目前已有十六个省份、地区发布了调峰辅助服务市场运营规则文件，几乎每个文件都提及储能可参与市场。
+1）深化电力交易改革，全面推动签订电力中长期合同，加快推动电力现货交易的结算试运行，市场化方式推动电力峰谷分时交易，增加现货市场申报价段数，鼓励更多辅助服务纳入电力交易。
+2）深化发用电计划改革，研究制定优先发电优先购电计划与市场化交易衔接方案，分省逐步试点，推动发电侧有序放开。
+3）深化增量配电业务改革，创新对用户的延伸服务，探索增量配电企业运营模式，明确调度规则，保障有序、安全运行。
+4）深化储能和调峰机制改革，明确电源侧、电网侧、用户侧储能责任的共担机制，结合电力交易改革开展试点，通过灵活的市场化机制实现储能和调峰的成本回收。
+5）深化清洁能源消纳改革，落实保障性消纳制度，区分规划内和规划外项目分类完善消纳方案，引导清洁能源有序发展。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>江苏：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2019年2月1日，江苏省能监办、江苏省工信厅印发《关于做好辅助服务（调峰）市场试运行有关工作的通知》，文件指出深度调峰报价的最高限价暂定为600元/MWh。
+2019年9月18日，江苏能监办发布关于《江苏电力辅助服务(调峰)市场启停交易补充规则（征求意见稿）》，文件表示，符合准入条件且充电/放电功率 20 兆瓦以上、持续时间 2 小时以上的储能电站，可以直接注册调峰辅助服务市场成员。鼓励综合能源服务商汇集储能电站，汇集容量达到充电/放电功率 20 兆瓦以 上、持续时间 2 小时以上且符合准入条件的，可以注册调峰辅助服务市场成员。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储能参与的虚拟电厂友好互动技术及应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/ojWGCkd8pLkwbnghlojzIQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟电厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个通识性的PPT
+1）核心技术：通信+聚合
+2）特征：虚拟性、智能型、灵活性
+3）VPP实现的关键技术：协调控制技术、智能计量技术、信息通信技术、其他
+4）VPP工程应用：需求响应、电网侧储能、大规模源网荷友好互动系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1088,8 +1208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CD9EFCE-E3F0-4009-A08C-1E6F161F0C15}" name="表1" displayName="表1" ref="A1:H18" totalsRowShown="0">
-  <autoFilter ref="A1:H18" xr:uid="{56430FAC-2118-4DB4-B20E-240A474DEB53}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CD9EFCE-E3F0-4009-A08C-1E6F161F0C15}" name="表1" displayName="表1" ref="A1:H20" totalsRowShown="0">
+  <autoFilter ref="A1:H20" xr:uid="{56430FAC-2118-4DB4-B20E-240A474DEB53}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BD6EEA8D-1900-4D37-B4BB-2C73F4FB8720}" name=" 序号" dataDxfId="7">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
@@ -1369,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1840,6 +1960,54 @@
       </c>
       <c r="G18" s="4" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f>ROW()-1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="2">
+        <v>44026</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f>ROW()-1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44026</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1861,11 +2029,13 @@
     <hyperlink ref="G16" r:id="rId14" xr:uid="{694EE78A-B54E-47E1-91D2-B679EBF0CAB3}"/>
     <hyperlink ref="G17" r:id="rId15" xr:uid="{AA425A97-C33E-4E70-ADEE-99D4FFA0FD6F}"/>
     <hyperlink ref="G18" r:id="rId16" xr:uid="{3D972052-4BDA-49DA-A48C-D01E1974F8B0}"/>
+    <hyperlink ref="G19" r:id="rId17" xr:uid="{86FCED50-DB80-49AC-8EDA-3534D700EF1D}"/>
+    <hyperlink ref="G20" r:id="rId18" xr:uid="{A8AB59B4-8363-46EC-98D2-3CB3530BE21C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>